--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a3</t>
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H2">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N2">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q2">
-        <v>20.81943313539556</v>
+        <v>9.405040322075999</v>
       </c>
       <c r="R2">
-        <v>187.37489821856</v>
+        <v>84.645362898684</v>
       </c>
       <c r="S2">
-        <v>0.1139985027170759</v>
+        <v>0.07153702281897428</v>
       </c>
       <c r="T2">
-        <v>0.1139985027170759</v>
+        <v>0.07153702281897428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H3">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q3">
-        <v>25.09208697592711</v>
+        <v>11.78905687393367</v>
       </c>
       <c r="R3">
-        <v>225.828782783344</v>
+        <v>106.101511865403</v>
       </c>
       <c r="S3">
-        <v>0.1373937670012351</v>
+        <v>0.08967043220699585</v>
       </c>
       <c r="T3">
-        <v>0.1373937670012351</v>
+        <v>0.08967043220699585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H4">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N4">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q4">
-        <v>24.12558623182934</v>
+        <v>20.67846723954234</v>
       </c>
       <c r="R4">
-        <v>217.130276086464</v>
+        <v>186.106205155881</v>
       </c>
       <c r="S4">
-        <v>0.1321016134163823</v>
+        <v>0.157285448240378</v>
       </c>
       <c r="T4">
-        <v>0.1321016134163823</v>
+        <v>0.1572854482403779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H5">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N5">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q5">
-        <v>7.218058511063112</v>
+        <v>3.561961850647</v>
       </c>
       <c r="R5">
-        <v>64.96252659956801</v>
+        <v>32.057656655823</v>
       </c>
       <c r="S5">
-        <v>0.03952306757989965</v>
+        <v>0.0270931476595525</v>
       </c>
       <c r="T5">
-        <v>0.03952306757989965</v>
+        <v>0.0270931476595525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H6">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I6">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J6">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N6">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O6">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P6">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q6">
-        <v>26.22214878753601</v>
+        <v>14.334199191033</v>
       </c>
       <c r="R6">
-        <v>235.9993390878241</v>
+        <v>129.007792719297</v>
       </c>
       <c r="S6">
-        <v>0.143581512539904</v>
+        <v>0.1090294033310753</v>
       </c>
       <c r="T6">
-        <v>0.143581512539904</v>
+        <v>0.1090294033310753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N7">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q7">
-        <v>6.245892904835555</v>
+        <v>6.005428712415999</v>
       </c>
       <c r="R7">
-        <v>56.21303614352</v>
+        <v>54.048858411744</v>
       </c>
       <c r="S7">
-        <v>0.03419989558082331</v>
+        <v>0.04567875055563798</v>
       </c>
       <c r="T7">
-        <v>0.03419989558082331</v>
+        <v>0.04567875055563798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q8">
         <v>7.527701978783111</v>
       </c>
       <c r="R8">
-        <v>67.74931780904799</v>
+        <v>67.74931780904801</v>
       </c>
       <c r="S8">
-        <v>0.04121854562037476</v>
+        <v>0.05725753104605283</v>
       </c>
       <c r="T8">
-        <v>0.04121854562037476</v>
+        <v>0.05725753104605283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.317432</v>
       </c>
       <c r="I9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N9">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q9">
-        <v>7.237748832565333</v>
+        <v>13.20388394269956</v>
       </c>
       <c r="R9">
-        <v>65.139739493088</v>
+        <v>118.834955484296</v>
       </c>
       <c r="S9">
-        <v>0.0396308835398575</v>
+        <v>0.1004319508009817</v>
       </c>
       <c r="T9">
-        <v>0.0396308835398575</v>
+        <v>0.1004319508009817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.317432</v>
       </c>
       <c r="I10">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J10">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N10">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q10">
-        <v>2.165439382895111</v>
+        <v>2.274430224418666</v>
       </c>
       <c r="R10">
-        <v>19.488954446056</v>
+        <v>20.469872019768</v>
       </c>
       <c r="S10">
-        <v>0.01185703980359316</v>
+        <v>0.01729986914383462</v>
       </c>
       <c r="T10">
-        <v>0.01185703980359316</v>
+        <v>0.01729986914383461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.317432</v>
       </c>
       <c r="I11">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J11">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N11">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O11">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P11">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q11">
-        <v>7.866723939912001</v>
+        <v>9.152859365127998</v>
       </c>
       <c r="R11">
-        <v>70.800515459208</v>
+        <v>82.375734286152</v>
       </c>
       <c r="S11">
-        <v>0.04307488799557584</v>
+        <v>0.06961887316156615</v>
       </c>
       <c r="T11">
-        <v>0.04307488799557584</v>
+        <v>0.06961887316156613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H12">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I12">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J12">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N12">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q12">
-        <v>2.479235716317778</v>
+        <v>0.061126604028</v>
       </c>
       <c r="R12">
-        <v>22.31312144686</v>
+        <v>0.550139436252</v>
       </c>
       <c r="S12">
-        <v>0.01357525719864197</v>
+        <v>0.0004649438085803143</v>
       </c>
       <c r="T12">
-        <v>0.01357525719864197</v>
+        <v>0.0004649438085803142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H13">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I13">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J13">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q13">
-        <v>2.988035160376556</v>
+        <v>0.076621150651</v>
       </c>
       <c r="R13">
-        <v>26.892316443389</v>
+        <v>0.6895903558590001</v>
       </c>
       <c r="S13">
-        <v>0.01636123001686295</v>
+        <v>0.0005827990965302702</v>
       </c>
       <c r="T13">
-        <v>0.01636123001686295</v>
+        <v>0.0005827990965302701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H14">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I14">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J14">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N14">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q14">
-        <v>2.872941576942666</v>
+        <v>0.134396497577</v>
       </c>
       <c r="R14">
-        <v>25.856474192484</v>
+        <v>1.209568478193</v>
       </c>
       <c r="S14">
-        <v>0.01573102572174697</v>
+        <v>0.001022252428986278</v>
       </c>
       <c r="T14">
-        <v>0.01573102572174698</v>
+        <v>0.001022252428986277</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H15">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I15">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J15">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N15">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q15">
-        <v>0.8595463837425555</v>
+        <v>0.023150419791</v>
       </c>
       <c r="R15">
-        <v>7.735917453683001</v>
+        <v>0.208353778119</v>
       </c>
       <c r="S15">
-        <v>0.004706516268972697</v>
+        <v>0.0001760877202163917</v>
       </c>
       <c r="T15">
-        <v>0.004706516268972698</v>
+        <v>0.0001760877202163917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H16">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I16">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J16">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N16">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O16">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P16">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q16">
-        <v>3.122606048391001</v>
+        <v>0.093162909249</v>
       </c>
       <c r="R16">
-        <v>28.103454435519</v>
+        <v>0.838466183241</v>
       </c>
       <c r="S16">
-        <v>0.01709808388042337</v>
+        <v>0.0007086197333130252</v>
       </c>
       <c r="T16">
-        <v>0.01709808388042337</v>
+        <v>0.0007086197333130251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H17">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I17">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J17">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N17">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q17">
-        <v>7.200036906515555</v>
+        <v>4.121571478528</v>
       </c>
       <c r="R17">
-        <v>64.80033215863999</v>
+        <v>37.094143306752</v>
       </c>
       <c r="S17">
-        <v>0.03942438881561149</v>
+        <v>0.03134967451627142</v>
       </c>
       <c r="T17">
-        <v>0.0394243888156115</v>
+        <v>0.03134967451627142</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H18">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I18">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J18">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q18">
-        <v>8.677659526715111</v>
+        <v>5.166319218887111</v>
       </c>
       <c r="R18">
-        <v>78.09893574043599</v>
+        <v>46.496872969984</v>
       </c>
       <c r="S18">
-        <v>0.04751523188459264</v>
+        <v>0.03929627978139849</v>
       </c>
       <c r="T18">
-        <v>0.04751523188459265</v>
+        <v>0.03929627978139849</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H19">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I19">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J19">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N19">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q19">
-        <v>8.343412144357332</v>
+        <v>9.061926145507556</v>
       </c>
       <c r="R19">
-        <v>75.09070929921599</v>
+        <v>81.557335309568</v>
       </c>
       <c r="S19">
-        <v>0.04568503310453519</v>
+        <v>0.06892721298954951</v>
       </c>
       <c r="T19">
-        <v>0.0456850331045352</v>
+        <v>0.0689272129895495</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H20">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I20">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J20">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N20">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q20">
-        <v>2.496239322899111</v>
+        <v>1.560958791082667</v>
       </c>
       <c r="R20">
-        <v>22.466153906092</v>
+        <v>14.048629119744</v>
       </c>
       <c r="S20">
-        <v>0.01366836183210899</v>
+        <v>0.01187303199488153</v>
       </c>
       <c r="T20">
-        <v>0.01366836183210899</v>
+        <v>0.01187303199488153</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H21">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I21">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J21">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N21">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O21">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P21">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q21">
-        <v>9.068471644284001</v>
+        <v>6.281677114623999</v>
       </c>
       <c r="R21">
-        <v>81.616244798556</v>
+        <v>56.535094031616</v>
       </c>
       <c r="S21">
-        <v>0.04965515548178221</v>
+        <v>0.04777996305188561</v>
       </c>
       <c r="T21">
-        <v>0.04965515548178222</v>
+        <v>0.04777996305188561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.057865</v>
+      </c>
+      <c r="I22">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J22">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>56.756364</v>
+      </c>
+      <c r="N22">
+        <v>170.269092</v>
+      </c>
+      <c r="O22">
+        <v>0.157357217290148</v>
+      </c>
+      <c r="P22">
+        <v>0.157357217290148</v>
+      </c>
+      <c r="Q22">
+        <v>1.09473566762</v>
+      </c>
+      <c r="R22">
+        <v>9.85262100858</v>
+      </c>
+      <c r="S22">
+        <v>0.008326825590683963</v>
+      </c>
+      <c r="T22">
+        <v>0.008326825590683965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.057865</v>
+      </c>
+      <c r="I23">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J23">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N23">
+        <v>213.429389</v>
+      </c>
+      <c r="O23">
+        <v>0.1972445753159741</v>
+      </c>
+      <c r="P23">
+        <v>0.1972445753159741</v>
+      </c>
+      <c r="Q23">
+        <v>1.372232399387222</v>
+      </c>
+      <c r="R23">
+        <v>12.350091594485</v>
+      </c>
+      <c r="S23">
+        <v>0.01043753318499662</v>
+      </c>
+      <c r="T23">
+        <v>0.01043753318499662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.057865</v>
+      </c>
+      <c r="I24">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J24">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.7878343333334</v>
+      </c>
+      <c r="N24">
+        <v>374.363503</v>
+      </c>
+      <c r="O24">
+        <v>0.3459747062436438</v>
+      </c>
+      <c r="P24">
+        <v>0.3459747062436438</v>
+      </c>
+      <c r="Q24">
+        <v>2.406949344566112</v>
+      </c>
+      <c r="R24">
+        <v>21.662544101095</v>
+      </c>
+      <c r="S24">
+        <v>0.01830784178374836</v>
+      </c>
+      <c r="T24">
+        <v>0.01830784178374836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.057865</v>
+      </c>
+      <c r="I25">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J25">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.495283</v>
+      </c>
+      <c r="N25">
+        <v>64.485849</v>
+      </c>
+      <c r="O25">
+        <v>0.05959574714377799</v>
+      </c>
+      <c r="P25">
+        <v>0.05959574714377799</v>
+      </c>
+      <c r="Q25">
+        <v>0.4146081835983333</v>
+      </c>
+      <c r="R25">
+        <v>3.731473652385</v>
+      </c>
+      <c r="S25">
+        <v>0.003153610625292945</v>
+      </c>
+      <c r="T25">
+        <v>0.003153610625292945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.057865</v>
+      </c>
+      <c r="I26">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J26">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.50223699999999</v>
+      </c>
+      <c r="N26">
+        <v>259.506711</v>
+      </c>
+      <c r="O26">
+        <v>0.239827754006456</v>
+      </c>
+      <c r="P26">
+        <v>0.2398277540064561</v>
+      </c>
+      <c r="Q26">
+        <v>1.668483981335</v>
+      </c>
+      <c r="R26">
+        <v>15.016355832015</v>
+      </c>
+      <c r="S26">
+        <v>0.01269089472861597</v>
+      </c>
+      <c r="T26">
+        <v>0.01269089472861597</v>
       </c>
     </row>
   </sheetData>
